--- a/notebooks_imdb/test_cases_imdb_rotulated/random.xlsx
+++ b/notebooks_imdb/test_cases_imdb_rotulated/random.xlsx
@@ -982,7 +982,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1030,7 +1030,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Avoid , unless it be the MST3K version .</t>
+          <t>Avoid , unless it had the MST3K version .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1061,7 +1061,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Avoid , unless it means the MST3K version .</t>
+          <t>Avoid , unless it was the MST3K version .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1084,6 +1084,130 @@
         </is>
       </c>
       <c r="G3" t="inlineStr">
+        <is>
+          <t>'s foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Avoid , unless it are the MST3K version .</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>'s foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Avoid , unless it disappointed the MST3K version .</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>'s foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Avoid , unless it 's the MST3K version .</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>'s foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Avoid , unless it were the MST3K version .</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>'s foi classificado como VERB. O correto seria AUX</t>
         </is>
@@ -1100,7 +1224,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1148,7 +1272,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>You will laugh , you will ended , and when it 's over you 'll wish there are more .</t>
+          <t>You will laugh , you will ended , and when it 's over you 'll wish there leave more .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1162,24 +1286,16 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FN</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>LE</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>As seguintes palavras foram classificadas erradas em outros templates: are</t>
-        </is>
-      </c>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>You will laugh , you will cry , and when it 's over you 'll wish there lacks more .</t>
+          <t>You will laugh , you will walked , and when it 's over you 'll wish there leave more .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1202,7 +1318,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>You will laugh , you will cry , and when it 's over you 'll wish there are more .</t>
+          <t>You will laugh , you will ended , and when it 's over you 'll wish there were more .</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1216,48 +1332,372 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FN</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LE</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>As seguintes palavras foram classificadas erradas em outros templates: are</t>
-        </is>
-      </c>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>You will laugh , you will ended , and when it 's over you 'll wish there had more .</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: had</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>You will laugh , you will ended , and when it 's over you 'll wish there lacks more .</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>You will laugh , you will cry , and when it 's over you 'll wish there had more .</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: had</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>You will laugh , you will ended , and when it 's over you 'll wish there are more .</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: are</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>You will laugh , you will ended , and when it 's over you 'll wish there was more .</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: was</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>You will laugh , you will cry , and when it 's over you 'll wish there be more .</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: be</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>You will laugh , you will ended , and when it 's over you 'll wish there like more .</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>You will laugh , you will walked , and when it 's over you 'll wish there had more .</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>FN</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>LE</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>As seguintes palavras foram classificadas erradas em outros templates: had</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>You will laugh , you will cry , and when it 's over you 'll wish there lacks more .</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>You will laugh , you will cry , and when it 's over you 'll wish there have more .</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>You will laugh , you will walked , and when it 's over you 'll wish there lacks more .</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>You will laugh , you will walked , and when it 's over you 'll wish there 's more .</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: 's</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>You will laugh , you will cry , and when it 's over you 'll wish there was more .</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: was</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1712,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1343,6 +1783,68 @@
         </is>
       </c>
       <c r="G2" t="inlineStr">
+        <is>
+          <t>hard foi classificado como ADJ. O correto seria ADV</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>It tries real - too real .</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>hard foi classificado como ADJ. O correto seria ADV</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>It tries easy - too easy .</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>hard foi classificado como ADJ. O correto seria ADV</t>
         </is>
@@ -1359,7 +1861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1407,7 +1909,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Yeung Fan as the physcho 's love interest 's unfaithful girl tries to keep one from total boredom by stripping down whenever possible , and Sun does means a easy ass , but even that ca n't save this dud. &lt; br / &gt; &lt; br / &gt; My Grade : D &lt; br / &gt; &lt; br / &gt; Mei Ah DVD Extras : Sub-titled interviews with Cheung Kam Ching &amp; Paulyn Sun ; Anthony Wong filmography ; a very brief synopsis ; Theatrical trailer for the film ; &amp; trailers for `` Chinese Erotic Ghost Story '' and `` Twenty Something ''</t>
+          <t>Yeung Fan as the physcho 's love interest 's unfaithful girl tries to keep one from total boredom by stripping down whenever possible , and Sun does are a governmental ass , but even that ca n't save this dud. &lt; br / &gt; &lt; br / &gt; My Grade : D &lt; br / &gt; &lt; br / &gt; Mei Ah DVD Extras : Sub-titled interviews with Cheung Kam Ching &amp; Paulyn Sun ; Anthony Wong filmography ; a very brief synopsis ; Theatrical trailer for the film ; &amp; trailers for `` Chinese Erotic Ghost Story '' and `` Twenty Something ''</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1421,16 +1923,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>VN</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: are</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Yeung Fan as the physcho 's love interest 's unfaithful girl tries to keep one from total boredom by stripping down whenever possible , and Sun does like a hard ass , but even that ca n't save this dud. &lt; br / &gt; &lt; br / &gt; My Grade : D &lt; br / &gt; &lt; br / &gt; Mei Ah DVD Extras : Sub-titled interviews with Cheung Kam Ching &amp; Paulyn Sun ; Anthony Wong filmography ; a very brief synopsis ; Theatrical trailer for the film ; &amp; trailers for `` Chinese Erotic Ghost Story '' and `` Twenty Something ''</t>
+          <t>Yeung Fan as the physcho 's love interest 's unfaithful girl tries to keep one from total boredom by stripping down whenever possible , and Sun does had a governmental ass , but even that ca n't save this dud. &lt; br / &gt; &lt; br / &gt; My Grade : D &lt; br / &gt; &lt; br / &gt; Mei Ah DVD Extras : Sub-titled interviews with Cheung Kam Ching &amp; Paulyn Sun ; Anthony Wong filmography ; a very brief synopsis ; Theatrical trailer for the film ; &amp; trailers for `` Chinese Erotic Ghost Story '' and `` Twenty Something ''</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1454,14 +1964,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>As seguintes palavras foram classificadas erradas em outros templates: hard</t>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: had</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Yeung Fan as the physcho 's love interest 's unfaithful girl tries to keep one from total boredom by stripping down whenever possible , and Sun does are a easy ass , but even that ca n't save this dud. &lt; br / &gt; &lt; br / &gt; My Grade : D &lt; br / &gt; &lt; br / &gt; Mei Ah DVD Extras : Sub-titled interviews with Cheung Kam Ching &amp; Paulyn Sun ; Anthony Wong filmography ; a very brief synopsis ; Theatrical trailer for the film ; &amp; trailers for `` Chinese Erotic Ghost Story '' and `` Twenty Something ''</t>
+          <t>Yeung Fan as the physcho 's love interest 's unfaithful girl tries to keep one from total boredom by stripping down whenever possible , and Sun does was a real ass , but even that ca n't save this dud. &lt; br / &gt; &lt; br / &gt; My Grade : D &lt; br / &gt; &lt; br / &gt; Mei Ah DVD Extras : Sub-titled interviews with Cheung Kam Ching &amp; Paulyn Sun ; Anthony Wong filmography ; a very brief synopsis ; Theatrical trailer for the film ; &amp; trailers for `` Chinese Erotic Ghost Story '' and `` Twenty Something ''</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1485,14 +1995,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>As seguintes palavras foram classificadas erradas em outros templates: are</t>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: was</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Yeung Fan as the physcho 's love interest 's unfaithful girl tries to keep one from total boredom by stripping down whenever possible , and Sun does had a hard ass , but even that ca n't save this dud. &lt; br / &gt; &lt; br / &gt; My Grade : D &lt; br / &gt; &lt; br / &gt; Mei Ah DVD Extras : Sub-titled interviews with Cheung Kam Ching &amp; Paulyn Sun ; Anthony Wong filmography ; a very brief synopsis ; Theatrical trailer for the film ; &amp; trailers for `` Chinese Erotic Ghost Story '' and `` Twenty Something ''</t>
+          <t>Yeung Fan as the physcho 's love interest 's unfaithful girl tries to keep one from total boredom by stripping down whenever possible , and Sun does means a hard ass , but even that ca n't save this dud. &lt; br / &gt; &lt; br / &gt; My Grade : D &lt; br / &gt; &lt; br / &gt; Mei Ah DVD Extras : Sub-titled interviews with Cheung Kam Ching &amp; Paulyn Sun ; Anthony Wong filmography ; a very brief synopsis ; Theatrical trailer for the film ; &amp; trailers for `` Chinese Erotic Ghost Story '' and `` Twenty Something ''</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1516,14 +2026,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>As seguintes palavras foram classificadas erradas em outros templates: hard, had</t>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: hard</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Yeung Fan as the physcho 's love interest 's unfaithful girl tries to keep one from total boredom by stripping down whenever possible , and Sun does had a real ass , but even that ca n't save this dud. &lt; br / &gt; &lt; br / &gt; My Grade : D &lt; br / &gt; &lt; br / &gt; Mei Ah DVD Extras : Sub-titled interviews with Cheung Kam Ching &amp; Paulyn Sun ; Anthony Wong filmography ; a very brief synopsis ; Theatrical trailer for the film ; &amp; trailers for `` Chinese Erotic Ghost Story '' and `` Twenty Something ''</t>
+          <t>Yeung Fan as the physcho 's love interest 's unfaithful girl tries to keep one from total boredom by stripping down whenever possible , and Sun does be a hard ass , but even that ca n't save this dud. &lt; br / &gt; &lt; br / &gt; My Grade : D &lt; br / &gt; &lt; br / &gt; Mei Ah DVD Extras : Sub-titled interviews with Cheung Kam Ching &amp; Paulyn Sun ; Anthony Wong filmography ; a very brief synopsis ; Theatrical trailer for the film ; &amp; trailers for `` Chinese Erotic Ghost Story '' and `` Twenty Something ''</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1547,40 +2057,556 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>As seguintes palavras foram classificadas erradas em outros templates: had</t>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: be, hard</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Yeung Fan as the physcho 's love interest 's unfaithful girl tries to keep one from total boredom by stripping down whenever possible , and Sun does was a governmental ass , but even that ca n't save this dud. &lt; br / &gt; &lt; br / &gt; My Grade : D &lt; br / &gt; &lt; br / &gt; Mei Ah DVD Extras : Sub-titled interviews with Cheung Kam Ching &amp; Paulyn Sun ; Anthony Wong filmography ; a very brief synopsis ; Theatrical trailer for the film ; &amp; trailers for `` Chinese Erotic Ghost Story '' and `` Twenty Something ''</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: was</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Yeung Fan as the physcho 's love interest 's unfaithful girl tries to keep one from total boredom by stripping down whenever possible , and Sun does leave a nice ass , but even that ca n't save this dud. &lt; br / &gt; &lt; br / &gt; My Grade : D &lt; br / &gt; &lt; br / &gt; Mei Ah DVD Extras : Sub-titled interviews with Cheung Kam Ching &amp; Paulyn Sun ; Anthony Wong filmography ; a very brief synopsis ; Theatrical trailer for the film ; &amp; trailers for `` Chinese Erotic Ghost Story '' and `` Twenty Something ''</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Yeung Fan as the physcho 's love interest 's unfaithful girl tries to keep one from total boredom by stripping down whenever possible , and Sun does means a nice ass , but even that ca n't save this dud. &lt; br / &gt; &lt; br / &gt; My Grade : D &lt; br / &gt; &lt; br / &gt; Mei Ah DVD Extras : Sub-titled interviews with Cheung Kam Ching &amp; Paulyn Sun ; Anthony Wong filmography ; a very brief synopsis ; Theatrical trailer for the film ; &amp; trailers for `` Chinese Erotic Ghost Story '' and `` Twenty Something ''</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Yeung Fan as the physcho 's love interest 's unfaithful girl tries to keep one from total boredom by stripping down whenever possible , and Sun does like a real ass , but even that ca n't save this dud. &lt; br / &gt; &lt; br / &gt; My Grade : D &lt; br / &gt; &lt; br / &gt; Mei Ah DVD Extras : Sub-titled interviews with Cheung Kam Ching &amp; Paulyn Sun ; Anthony Wong filmography ; a very brief synopsis ; Theatrical trailer for the film ; &amp; trailers for `` Chinese Erotic Ghost Story '' and `` Twenty Something ''</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Yeung Fan as the physcho 's love interest 's unfaithful girl tries to keep one from total boredom by stripping down whenever possible , and Sun does 's a real ass , but even that ca n't save this dud. &lt; br / &gt; &lt; br / &gt; My Grade : D &lt; br / &gt; &lt; br / &gt; Mei Ah DVD Extras : Sub-titled interviews with Cheung Kam Ching &amp; Paulyn Sun ; Anthony Wong filmography ; a very brief synopsis ; Theatrical trailer for the film ; &amp; trailers for `` Chinese Erotic Ghost Story '' and `` Twenty Something ''</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: 's</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Yeung Fan as the physcho 's love interest 's unfaithful girl tries to keep one from total boredom by stripping down whenever possible , and Sun does leave a easy ass , but even that ca n't save this dud. &lt; br / &gt; &lt; br / &gt; My Grade : D &lt; br / &gt; &lt; br / &gt; Mei Ah DVD Extras : Sub-titled interviews with Cheung Kam Ching &amp; Paulyn Sun ; Anthony Wong filmography ; a very brief synopsis ; Theatrical trailer for the film ; &amp; trailers for `` Chinese Erotic Ghost Story '' and `` Twenty Something ''</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Yeung Fan as the physcho 's love interest 's unfaithful girl tries to keep one from total boredom by stripping down whenever possible , and Sun does lacks a easy ass , but even that ca n't save this dud. &lt; br / &gt; &lt; br / &gt; My Grade : D &lt; br / &gt; &lt; br / &gt; Mei Ah DVD Extras : Sub-titled interviews with Cheung Kam Ching &amp; Paulyn Sun ; Anthony Wong filmography ; a very brief synopsis ; Theatrical trailer for the film ; &amp; trailers for `` Chinese Erotic Ghost Story '' and `` Twenty Something ''</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Yeung Fan as the physcho 's love interest 's unfaithful girl tries to keep one from total boredom by stripping down whenever possible , and Sun does lacks a real ass , but even that ca n't save this dud. &lt; br / &gt; &lt; br / &gt; My Grade : D &lt; br / &gt; &lt; br / &gt; Mei Ah DVD Extras : Sub-titled interviews with Cheung Kam Ching &amp; Paulyn Sun ; Anthony Wong filmography ; a very brief synopsis ; Theatrical trailer for the film ; &amp; trailers for `` Chinese Erotic Ghost Story '' and `` Twenty Something ''</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Yeung Fan as the physcho 's love interest 's unfaithful girl tries to keep one from total boredom by stripping down whenever possible , and Sun does lacks a nice ass , but even that ca n't save this dud. &lt; br / &gt; &lt; br / &gt; My Grade : D &lt; br / &gt; &lt; br / &gt; Mei Ah DVD Extras : Sub-titled interviews with Cheung Kam Ching &amp; Paulyn Sun ; Anthony Wong filmography ; a very brief synopsis ; Theatrical trailer for the film ; &amp; trailers for `` Chinese Erotic Ghost Story '' and `` Twenty Something ''</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Yeung Fan as the physcho 's love interest 's unfaithful girl tries to keep one from total boredom by stripping down whenever possible , and Sun does had a easy ass , but even that ca n't save this dud. &lt; br / &gt; &lt; br / &gt; My Grade : D &lt; br / &gt; &lt; br / &gt; Mei Ah DVD Extras : Sub-titled interviews with Cheung Kam Ching &amp; Paulyn Sun ; Anthony Wong filmography ; a very brief synopsis ; Theatrical trailer for the film ; &amp; trailers for `` Chinese Erotic Ghost Story '' and `` Twenty Something ''</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: had</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Yeung Fan as the physcho 's love interest 's unfaithful girl tries to keep one from total boredom by stripping down whenever possible , and Sun does had a nice ass , but even that ca n't save this dud. &lt; br / &gt; &lt; br / &gt; My Grade : D &lt; br / &gt; &lt; br / &gt; Mei Ah DVD Extras : Sub-titled interviews with Cheung Kam Ching &amp; Paulyn Sun ; Anthony Wong filmography ; a very brief synopsis ; Theatrical trailer for the film ; &amp; trailers for `` Chinese Erotic Ghost Story '' and `` Twenty Something ''</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: had</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Yeung Fan as the physcho 's love interest 's unfaithful girl tries to keep one from total boredom by stripping down whenever possible , and Sun does like a nice ass , but even that ca n't save this dud. &lt; br / &gt; &lt; br / &gt; My Grade : D &lt; br / &gt; &lt; br / &gt; Mei Ah DVD Extras : Sub-titled interviews with Cheung Kam Ching &amp; Paulyn Sun ; Anthony Wong filmography ; a very brief synopsis ; Theatrical trailer for the film ; &amp; trailers for `` Chinese Erotic Ghost Story '' and `` Twenty Something ''</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Yeung Fan as the physcho 's love interest 's unfaithful girl tries to keep one from total boredom by stripping down whenever possible , and Sun does are a nice ass , but even that ca n't save this dud. &lt; br / &gt; &lt; br / &gt; My Grade : D &lt; br / &gt; &lt; br / &gt; Mei Ah DVD Extras : Sub-titled interviews with Cheung Kam Ching &amp; Paulyn Sun ; Anthony Wong filmography ; a very brief synopsis ; Theatrical trailer for the film ; &amp; trailers for `` Chinese Erotic Ghost Story '' and `` Twenty Something ''</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: are</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>Yeung Fan as the physcho 's love interest 's unfaithful girl tries to keep one from total boredom by stripping down whenever possible , and Sun does was a easy ass , but even that ca n't save this dud. &lt; br / &gt; &lt; br / &gt; My Grade : D &lt; br / &gt; &lt; br / &gt; Mei Ah DVD Extras : Sub-titled interviews with Cheung Kam Ching &amp; Paulyn Sun ; Anthony Wong filmography ; a very brief synopsis ; Theatrical trailer for the film ; &amp; trailers for `` Chinese Erotic Ghost Story '' and `` Twenty Something ''</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>FN</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>LE</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>As seguintes palavras foram classificadas erradas em outros templates: was</t>
         </is>
       </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Yeung Fan as the physcho 's love interest 's unfaithful girl tries to keep one from total boredom by stripping down whenever possible , and Sun does had a real ass , but even that ca n't save this dud. &lt; br / &gt; &lt; br / &gt; My Grade : D &lt; br / &gt; &lt; br / &gt; Mei Ah DVD Extras : Sub-titled interviews with Cheung Kam Ching &amp; Paulyn Sun ; Anthony Wong filmography ; a very brief synopsis ; Theatrical trailer for the film ; &amp; trailers for `` Chinese Erotic Ghost Story '' and `` Twenty Something ''</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: had</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Yeung Fan as the physcho 's love interest 's unfaithful girl tries to keep one from total boredom by stripping down whenever possible , and Sun does disappointed a nice ass , but even that ca n't save this dud. &lt; br / &gt; &lt; br / &gt; My Grade : D &lt; br / &gt; &lt; br / &gt; Mei Ah DVD Extras : Sub-titled interviews with Cheung Kam Ching &amp; Paulyn Sun ; Anthony Wong filmography ; a very brief synopsis ; Theatrical trailer for the film ; &amp; trailers for `` Chinese Erotic Ghost Story '' and `` Twenty Something ''</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Yeung Fan as the physcho 's love interest 's unfaithful girl tries to keep one from total boredom by stripping down whenever possible , and Sun does have a governmental ass , but even that ca n't save this dud. &lt; br / &gt; &lt; br / &gt; My Grade : D &lt; br / &gt; &lt; br / &gt; Mei Ah DVD Extras : Sub-titled interviews with Cheung Kam Ching &amp; Paulyn Sun ; Anthony Wong filmography ; a very brief synopsis ; Theatrical trailer for the film ; &amp; trailers for `` Chinese Erotic Ghost Story '' and `` Twenty Something ''</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Yeung Fan as the physcho 's love interest 's unfaithful girl tries to keep one from total boredom by stripping down whenever possible , and Sun does be a easy ass , but even that ca n't save this dud. &lt; br / &gt; &lt; br / &gt; My Grade : D &lt; br / &gt; &lt; br / &gt; Mei Ah DVD Extras : Sub-titled interviews with Cheung Kam Ching &amp; Paulyn Sun ; Anthony Wong filmography ; a very brief synopsis ; Theatrical trailer for the film ; &amp; trailers for `` Chinese Erotic Ghost Story '' and `` Twenty Something ''</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: be</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Yeung Fan as the physcho 's love interest 's unfaithful girl tries to keep one from total boredom by stripping down whenever possible , and Sun does like a easy ass , but even that ca n't save this dud. &lt; br / &gt; &lt; br / &gt; My Grade : D &lt; br / &gt; &lt; br / &gt; Mei Ah DVD Extras : Sub-titled interviews with Cheung Kam Ching &amp; Paulyn Sun ; Anthony Wong filmography ; a very brief synopsis ; Theatrical trailer for the film ; &amp; trailers for `` Chinese Erotic Ghost Story '' and `` Twenty Something ''</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Yeung Fan as the physcho 's love interest 's unfaithful girl tries to keep one from total boredom by stripping down whenever possible , and Sun does have a easy ass , but even that ca n't save this dud. &lt; br / &gt; &lt; br / &gt; My Grade : D &lt; br / &gt; &lt; br / &gt; Mei Ah DVD Extras : Sub-titled interviews with Cheung Kam Ching &amp; Paulyn Sun ; Anthony Wong filmography ; a very brief synopsis ; Theatrical trailer for the film ; &amp; trailers for `` Chinese Erotic Ghost Story '' and `` Twenty Something ''</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Yeung Fan as the physcho 's love interest 's unfaithful girl tries to keep one from total boredom by stripping down whenever possible , and Sun does have a nice ass , but even that ca n't save this dud. &lt; br / &gt; &lt; br / &gt; My Grade : D &lt; br / &gt; &lt; br / &gt; Mei Ah DVD Extras : Sub-titled interviews with Cheung Kam Ching &amp; Paulyn Sun ; Anthony Wong filmography ; a very brief synopsis ; Theatrical trailer for the film ; &amp; trailers for `` Chinese Erotic Ghost Story '' and `` Twenty Something ''</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1593,7 +2619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1641,7 +2667,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the governmental problem with this film is that it switches moods every fifteen minutes or so and like any kind of cohesion .</t>
+          <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the governmental problem with this film is that it switches moods every fifteen minutes or so and means any kind of cohesion .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1664,38 +2690,30 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the nice problem with this film is that it switches moods every fifteen minutes or so and was any kind of cohesion .</t>
+          <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the governmental problem with this film is that it switches moods every fifteen minutes or so and like any kind of cohesion .</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FN</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>LE</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>As seguintes palavras foram classificadas erradas em outros templates: was</t>
-        </is>
-      </c>
+          <t>VP</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the hard problem with this film is that it switches moods every fifteen minutes or so and have any kind of cohesion .</t>
+          <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the hard problem with this film is that it switches moods every fifteen minutes or so and be any kind of cohesion .</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1719,14 +2737,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>As seguintes palavras foram classificadas erradas em outros templates: hard</t>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: be, hard</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the easy problem with this film is that it switches moods every fifteen minutes or so and means any kind of cohesion .</t>
+          <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the nice problem with this film is that it switches moods every fifteen minutes or so and had any kind of cohesion .</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1740,16 +2758,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>VN</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: had</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the easy problem with this film is that it switches moods every fifteen minutes or so and were any kind of cohesion .</t>
+          <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the real problem with this film is that it switches moods every fifteen minutes or so and had any kind of cohesion .</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1763,16 +2789,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>VN</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: had</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the governmental problem with this film is that it switches moods every fifteen minutes or so and were any kind of cohesion .</t>
+          <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the nice problem with this film is that it switches moods every fifteen minutes or so and means any kind of cohesion .</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1795,33 +2829,557 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the governmental problem with this film is that it switches moods every fifteen minutes or so and were any kind of cohesion .</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the easy problem with this film is that it switches moods every fifteen minutes or so and leave any kind of cohesion .</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the nice problem with this film is that it switches moods every fifteen minutes or so and 's any kind of cohesion .</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>FN</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>LE</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>As seguintes palavras foram classificadas erradas em outros templates: 's</t>
         </is>
       </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the nice problem with this film is that it switches moods every fifteen minutes or so and was any kind of cohesion .</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: was</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the nice problem with this film is that it switches moods every fifteen minutes or so and like any kind of cohesion .</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the governmental problem with this film is that it switches moods every fifteen minutes or so and be any kind of cohesion .</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: be</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the easy problem with this film is that it switches moods every fifteen minutes or so and 's any kind of cohesion .</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: 's</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the real problem with this film is that it switches moods every fifteen minutes or so and are any kind of cohesion .</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: are</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the hard problem with this film is that it switches moods every fifteen minutes or so and was any kind of cohesion .</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: was, hard</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the hard problem with this film is that it switches moods every fifteen minutes or so and have any kind of cohesion .</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: hard</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the easy problem with this film is that it switches moods every fifteen minutes or so and were any kind of cohesion .</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the nice problem with this film is that it switches moods every fifteen minutes or so and lacks any kind of cohesion .</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the governmental problem with this film is that it switches moods every fifteen minutes or so and disappointed any kind of cohesion .</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the easy problem with this film is that it switches moods every fifteen minutes or so and have any kind of cohesion .</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the governmental problem with this film is that it switches moods every fifteen minutes or so and leave any kind of cohesion .</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the hard problem with this film is that it switches moods every fifteen minutes or so and like any kind of cohesion .</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: hard</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the real problem with this film is that it switches moods every fifteen minutes or so and means any kind of cohesion .</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the easy problem with this film is that it switches moods every fifteen minutes or so and lacks any kind of cohesion .</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the real problem with this film is that it switches moods every fifteen minutes or so and lacks any kind of cohesion .</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the nice problem with this film is that it switches moods every fifteen minutes or so and be any kind of cohesion .</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: be</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the easy problem with this film is that it switches moods every fifteen minutes or so and disappointed any kind of cohesion .</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1834,7 +3392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1882,14 +3440,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>If you was your news all tidy and governmental to consume this is not for you .</t>
+          <t>If you was your news all tidy and real to consume this is not for you .</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1913,21 +3471,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>If you like your news all tidy and easy to consume this is not for you .</t>
+          <t>If you like your news all tidy and governmental to consume this is not for you .</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>VN</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -1936,21 +3494,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>If you like your news all tidy and real to consume this is not for you .</t>
+          <t>If you were your news all tidy and easy to consume this is not for you .</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>VN</t>
+          <t>VP</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -1959,79 +3517,890 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>If you disappointed your news all tidy and governmental to consume this is not for you .</t>
+          <t>If you be your news all tidy and hard to consume this is not for you .</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>VN</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: be, hard</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>If you 's your news all tidy and easy to consume this is not for you .</t>
+          <t>If you have your news all tidy and easy to consume this is not for you .</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FN</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>LE</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>As seguintes palavras foram classificadas erradas em outros templates: 's</t>
-        </is>
-      </c>
+          <t>VP</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>If you had your news all tidy and real to consume this is not for you .</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: had</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>If you 's your news all tidy and nice to consume this is not for you .</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: 's</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>If you have your news all tidy and hard to consume this is not for you .</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: hard</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>If you was your news all tidy and hard to consume this is not for you .</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: was, hard</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>If you have your news all tidy and governmental to consume this is not for you .</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>VP</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>If you leave your news all tidy and real to consume this is not for you .</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>VP</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>If you like your news all tidy and easy to consume this is not for you .</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>VP</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>If you lacks your news all tidy and real to consume this is not for you .</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>VP</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>If you were your news all tidy and nice to consume this is not for you .</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>VP</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>If you be your news all tidy and easy to consume this is not for you .</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: be</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>If you 's your news all tidy and easy to consume this is not for you .</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: 's</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>If you be your news all tidy and governmental to consume this is not for you .</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: be</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>If you had your news all tidy and hard to consume this is not for you .</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: had, hard</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>If you had your news all tidy and easy to consume this is not for you .</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: had</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>If you disappointed your news all tidy and governmental to consume this is not for you .</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>VP</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>If you disappointed your news all tidy and hard to consume this is not for you .</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: hard</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>If you are your news all tidy and easy to consume this is not for you .</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: are</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>If you 's your news all tidy and hard to consume this is not for you .</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: hard, 's</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>If you be your news all tidy and nice to consume this is not for you .</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: be</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>If you leave your news all tidy and easy to consume this is not for you .</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>VP</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>If you 's your news all tidy and governmental to consume this is not for you .</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: 's</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>If you means your news all tidy and real to consume this is not for you .</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>VP</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>If you like your news all tidy and hard to consume this is not for you .</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: hard</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>If you have your news all tidy and real to consume this is not for you .</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>VP</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>If you are your news all tidy and hard to consume this is not for you .</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: hard, are</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>If you leave your news all tidy and governmental to consume this is not for you .</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>VN</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>If you leave your news all tidy and nice to consume this is not for you .</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>If you had your news all tidy and governmental to consume this is not for you .</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: had</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>If you lacks your news all tidy and nice to consume this is not for you .</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>If you was your news all tidy and governmental to consume this is not for you .</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: was</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2044,7 +4413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2092,7 +4461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>She walked the movie saying there have 34 million widows in India .</t>
+          <t>She ended the movie saying there disappointed 34 million widows in India .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2115,7 +4484,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>She walked the movie saying there like 34 million widows in India .</t>
+          <t>She ended the movie saying there be 34 million widows in India .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2129,16 +4498,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>VN</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: be</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>She walked the movie saying there 's 34 million widows in India .</t>
+          <t>She cry the movie saying there lacks 34 million widows in India .</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2152,24 +4529,16 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FN</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LE</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>As seguintes palavras foram classificadas erradas em outros templates: 's</t>
-        </is>
-      </c>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>She cry the movie saying there disappointed 34 million widows in India .</t>
+          <t>She ended the movie saying there have 34 million widows in India .</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2188,6 +4557,322 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>She walked the movie saying there disappointed 34 million widows in India .</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>She ended the movie saying there 's 34 million widows in India .</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: 's</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>She cry the movie saying there are 34 million widows in India .</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: are</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>She walked the movie saying there like 34 million widows in India .</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>She ended the movie saying there like 34 million widows in India .</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>She ended the movie saying there are 34 million widows in India .</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: are</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>She ended the movie saying there means 34 million widows in India .</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>She ended the movie saying there was 34 million widows in India .</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: was</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>She cry the movie saying there have 34 million widows in India .</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>She walked the movie saying there lacks 34 million widows in India .</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>She ended the movie saying there lacks 34 million widows in India .</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>She cry the movie saying there was 34 million widows in India .</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: was</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2200,7 +4885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2248,7 +4933,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>We are last against real wrong-doings .</t>
+          <t>We are Shoot against governmental wrong-doings .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2271,7 +4956,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>We are helpless against real wrong-doings .</t>
+          <t>We are Shoot against nice wrong-doings .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2290,6 +4975,199 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>We are Shoot against easy wrong-doings .</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>We are last against hard wrong-doings .</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: hard</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>We are juvenile against easy wrong-doings .</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>We are helpless against easy wrong-doings .</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>We are juvenile against hard wrong-doings .</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: hard</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>We are Shoot against hard wrong-doings .</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: hard</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>We are helpless against hard wrong-doings .</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: hard</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2381,7 +5259,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2429,7 +5307,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>There had all these people in the middle of the jungle too and they all want to had .</t>
+          <t>There means all these people in the middle of the jungle too and they all want to means .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2443,24 +5321,16 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>LE</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>As seguintes palavras foram classificadas erradas em outros templates: had</t>
-        </is>
-      </c>
+          <t>VP</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>There was all these people in the middle of the jungle too and they all want to was .</t>
+          <t>There had all these people in the middle of the jungle too and they all want to had .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2484,9 +5354,155 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>As seguintes palavras foram classificadas erradas em outros templates: was</t>
-        </is>
-      </c>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: had</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>There have all these people in the middle of the jungle too and they all want to have .</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>VP</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>There lacks all these people in the middle of the jungle too and they all want to lacks .</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>VP</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>There disappointed all these people in the middle of the jungle too and they all want to disappointed .</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>VP</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>There leave all these people in the middle of the jungle too and they all want to leave .</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>VP</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>There be all these people in the middle of the jungle too and they all want to be .</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: be</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>There were all these people in the middle of the jungle too and they all want to were .</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>VP</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2499,7 +5515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2547,7 +5563,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>This were on TV juvenile night .</t>
+          <t>This like on TV Shoot night .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2578,7 +5594,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>This means on TV last night .</t>
+          <t>This means on TV juvenile night .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2609,7 +5625,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>This leave on TV helpless night .</t>
+          <t>This were on TV juvenile night .</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2640,7 +5656,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>This disappointed on TV juvenile night .</t>
+          <t>This lacks on TV Shoot night .</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2671,21 +5687,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>This be on TV Shoot night .</t>
+          <t>This have on TV helpless night .</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2702,29 +5718,680 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>This lacks on TV juvenile night .</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>was foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>This are on TV Shoot night .</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>was foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>This leave on TV helpless night .</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>was foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>This lacks on TV last night .</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>was foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>This like on TV last night .</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>was foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>This was on TV juvenile night .</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>was foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>This means on TV Shoot night .</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>was foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>This disappointed on TV last night .</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>was foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>This disappointed on TV Shoot night .</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>was foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>This were on TV helpless night .</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>was foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>This had on TV Shoot night .</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>was foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>This are on TV helpless night .</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>was foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>This was on TV helpless night .</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>was foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>This disappointed on TV juvenile night .</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>was foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>This had on TV helpless night .</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>was foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>This like on TV helpless night .</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>was foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>This are on TV last night .</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>was foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>This was on TV last night .</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>was foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>This be on TV last night .</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>FN</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>TE</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>was foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>This was on TV Shoot night .</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>was foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>This have on TV Shoot night .</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>was foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>This be on TV juvenile night .</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>was foi classificado como VERB. O correto seria AUX</t>
         </is>
@@ -2741,7 +6408,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2789,37 +6456,45 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Literally , this phrase lacks `` juvenile ! ''</t>
+          <t>Literally , this phrase was `` last ! ''</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>VP</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: was</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Literally , this phrase are `` Shoot ! ''</t>
+          <t>Literally , this phrase be `` last ! ''</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2836,90 +6511,74 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>As seguintes palavras foram classificadas erradas em outros templates: are</t>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: be</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Literally , this phrase had `` juvenile ! ''</t>
+          <t>Literally , this phrase means `` last ! ''</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LE</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>As seguintes palavras foram classificadas erradas em outros templates: had</t>
-        </is>
-      </c>
+          <t>VP</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Literally , this phrase was `` helpless ! ''</t>
+          <t>Literally , this phrase have `` juvenile ! ''</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>LE</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>As seguintes palavras foram classificadas erradas em outros templates: was</t>
-        </is>
-      </c>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Literally , this phrase means `` helpless ! ''</t>
+          <t>Literally , this phrase were `` Shoot ! ''</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>VP</t>
+          <t>VN</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -2928,31 +6587,455 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Literally , this phrase are `` last ! ''</t>
+          <t>Literally , this phrase have `` helpless ! ''</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Literally , this phrase be `` Shoot ! ''</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>FN</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>LE</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: be</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Literally , this phrase was `` juvenile ! ''</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: was</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Literally , this phrase have `` Shoot ! ''</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Literally , this phrase like `` juvenile ! ''</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Literally , this phrase leave `` Shoot ! ''</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Literally , this phrase lacks `` last ! ''</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Literally , this phrase had `` helpless ! ''</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: had</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Literally , this phrase disappointed `` juvenile ! ''</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Literally , this phrase had `` Shoot ! ''</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: had</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Literally , this phrase were `` helpless ! ''</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Literally , this phrase disappointed `` last ! ''</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Literally , this phrase had `` juvenile ! ''</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: had</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Literally , this phrase are `` helpless ! ''</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>As seguintes palavras foram classificadas erradas em outros templates: are</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Literally , this phrase 's `` juvenile ! ''</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: 's</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Literally , this phrase means `` helpless ! ''</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Literally , this phrase was `` Shoot ! ''</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>As seguintes palavras foram classificadas erradas em outros templates: was</t>
         </is>
       </c>
     </row>
@@ -2967,7 +7050,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3015,7 +7098,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>You 'll not have have .</t>
+          <t>You 'll not means means .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3046,29 +7129,215 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>You 'll not were were .</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>be foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>You 'll not had had .</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>be foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>You 'll not 's 's .</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>be foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>You 'll not lacks lacks .</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>be foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>You 'll not have have .</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>be foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>You 'll not be be .</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>FN</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>TE</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>be foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>You 'll not disappointed disappointed .</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>be foi classificado como VERB. O correto seria AUX</t>
         </is>
@@ -3085,7 +7354,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3133,7 +7402,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>which , of course , he 's n't .</t>
+          <t>which , of course , he lacks n't .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3164,29 +7433,184 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>which , of course , he had n't .</t>
+          <t>which , of course , he was n't .</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>was foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>which , of course , he disappointed n't .</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>was foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>which , of course , he 's n't .</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>was foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>which , of course , he means n't .</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>was foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>which , of course , he have n't .</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>FN</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>TE</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>was foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>which , of course , he like n't .</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>was foi classificado como VERB. O correto seria AUX</t>
         </is>
@@ -3203,7 +7627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3251,7 +7675,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Many people ended out after about half an hour - I wish I have too .</t>
+          <t>Many people walked out after about half an hour - I wish I are too .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3282,7 +7706,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Many people ended out after about half an hour - I wish I disappointed too .</t>
+          <t>Many people walked out after about half an hour - I wish I leave too .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3313,7 +7737,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Many people cry out after about half an hour - I wish I are too .</t>
+          <t>Many people ended out after about half an hour - I wish I leave too .</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3344,7 +7768,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Many people ended out after about half an hour - I wish I was too .</t>
+          <t>Many people cry out after about half an hour - I wish I have too .</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3375,29 +7799,556 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Many people walked out after about half an hour - I wish I 's too .</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>had foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Many people walked out after about half an hour - I wish I be too .</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>had foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Many people ended out after about half an hour - I wish I means too .</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>had foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Many people cry out after about half an hour - I wish I disappointed too .</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>had foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Many people ended out after about half an hour - I wish I be too .</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>had foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Many people walked out after about half an hour - I wish I was too .</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>had foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Many people cry out after about half an hour - I wish I 's too .</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>had foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Many people ended out after about half an hour - I wish I lacks too .</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>had foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Many people walked out after about half an hour - I wish I disappointed too .</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>had foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Many people ended out after about half an hour - I wish I were too .</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>had foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Many people ended out after about half an hour - I wish I had too .</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>had foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Many people cry out after about half an hour - I wish I leave too .</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>had foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Many people walked out after about half an hour - I wish I were too .</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>had foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Many people walked out after about half an hour - I wish I had too .</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>had foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Many people walked out after about half an hour - I wish I lacks too .</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>had foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Many people cry out after about half an hour - I wish I were too .</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>had foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Many people walked out after about half an hour - I wish I like too .</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>had foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>Many people cry out after about half an hour - I wish I like too .</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>FN</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>TE</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>had foi classificado como VERB. O correto seria AUX</t>
         </is>
@@ -3414,7 +8365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3462,7 +8413,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>The jokes themselves means Shoot .</t>
+          <t>The jokes themselves had last .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3493,7 +8444,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>The jokes themselves be juvenile .</t>
+          <t>The jokes themselves means juvenile .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3524,21 +8475,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>The jokes themselves be helpless .</t>
+          <t>The jokes themselves be last .</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -3555,21 +8506,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>The jokes themselves 's Shoot .</t>
+          <t>The jokes themselves means Shoot .</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -3586,21 +8537,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>The jokes themselves disappointed last .</t>
+          <t>The jokes themselves be juvenile .</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -3617,29 +8568,556 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>The jokes themselves like last .</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>are foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>The jokes themselves have helpless .</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>are foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>The jokes themselves have juvenile .</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>are foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>The jokes themselves disappointed Shoot .</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>are foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>The jokes themselves like juvenile .</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>are foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>The jokes themselves 's last .</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>are foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>The jokes themselves leave helpless .</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>are foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>The jokes themselves were juvenile .</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>are foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>The jokes themselves lacks Shoot .</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>are foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>The jokes themselves 's helpless .</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>are foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>The jokes themselves were last .</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>are foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>The jokes themselves had Shoot .</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>are foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>The jokes themselves were Shoot .</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>are foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>The jokes themselves was last .</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>are foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>The jokes themselves lacks last .</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>FN</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>TE</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>are foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>The jokes themselves disappointed last .</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>are foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>The jokes themselves are helpless .</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>are foi classificado como VERB. O correto seria AUX</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>The jokes themselves leave Shoot .</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>are foi classificado como VERB. O correto seria AUX</t>
         </is>
